--- a/database/ER図.xlsx
+++ b/database/ER図.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$23</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,11 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
-  <si>
-    <t>ユーザーテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>学籍番号（ID）</t>
     <rPh sb="0" eb="2">
@@ -35,21 +34,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学年</t>
     <rPh sb="0" eb="2">
       <t>ガクネン</t>
@@ -239,6 +223,39 @@
   </si>
   <si>
     <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義ーK</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問（タイトル）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問（答え）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -246,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,16 +278,45 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック Light"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -317,16 +363,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -342,6 +410,996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>974912</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>974912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="974912" y="2767853"/>
+          <a:ext cx="0" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1075764</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1075764</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4650440" y="2767854"/>
+          <a:ext cx="0" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1138517</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1138517</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7525870" y="2147048"/>
+          <a:ext cx="0" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1425387</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1425387</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>293593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12003740" y="2131358"/>
+          <a:ext cx="0" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952501" y="2767853"/>
+          <a:ext cx="1501588" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1098176</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3036794" y="2767853"/>
+          <a:ext cx="1636058" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="lgDashDotDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1149724</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1149724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3043518" y="2528048"/>
+          <a:ext cx="0" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>532186</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>532186</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429249" y="2525899"/>
+          <a:ext cx="0" cy="256801"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1135062</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="2087563"/>
+          <a:ext cx="1841500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1301750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1493837</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9985375" y="2087563"/>
+          <a:ext cx="2089150" cy="17462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1311928</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1311928</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9995553" y="1869421"/>
+          <a:ext cx="0" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>686453</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>93008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>686453</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49118</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9370078" y="1878946"/>
+          <a:ext cx="0" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1263453</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1365326</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9952370" y="1840427"/>
+          <a:ext cx="101873" cy="101873"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632778</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>734651</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9323519" y="1820392"/>
+          <a:ext cx="101873" cy="101873"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>479534</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581407</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2377965" y="2430517"/>
+          <a:ext cx="101873" cy="101873"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1098331</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200204</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136032</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2996762" y="2425262"/>
+          <a:ext cx="101873" cy="101873"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1405759</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1405759</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>275896</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11994931" y="4026776"/>
+          <a:ext cx="0" cy="453258"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1353207</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1455080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="楕円 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11942379" y="3954518"/>
+          <a:ext cx="101873" cy="101873"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1563413</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1665286</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>280645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="楕円 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3454806" y="6451665"/>
+          <a:ext cx="101873" cy="101873"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1877787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1605643</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1877787" y="5558287"/>
+          <a:ext cx="1619249" cy="945928"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,191 +1665,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+    <col min="8" max="9" width="27.625" customWidth="1"/>
     <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="45.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="I18" s="4"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="4"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/ER図.xlsx
+++ b/database/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>学年学科テーブル</t>
     <rPh sb="0" eb="2">
@@ -34,16 +34,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学科コース番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学籍番号（ID）</t>
     <rPh sb="0" eb="2">
       <t>ガクセキ</t>
@@ -54,13 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー情報テーブル</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本名</t>
     <rPh sb="0" eb="2">
       <t>ホンミョウ</t>
@@ -105,10 +88,6 @@
   </si>
   <si>
     <t>タグテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグテーブルNo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -159,33 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップイベントNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問No</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボトムイベントNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミドルイベントNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミドルイベントNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップイベントNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボトムイベント内容</t>
     <rPh sb="7" eb="9">
       <t>ナイヨウ</t>
@@ -193,26 +145,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイムテーブルNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムテーブルNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムテーブルNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>準備イベントテーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>準備イベントNo</t>
     <rPh sb="0" eb="2">
       <t>ジュンビ</t>
     </rPh>
@@ -225,13 +158,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>準備タイムテーブルNo</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -250,16 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問情報テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回答内容</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -271,10 +187,6 @@
   </si>
   <si>
     <t>ミドルイベント名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>準備タイムテーブルNo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -308,6 +220,96 @@
   </si>
   <si>
     <t>ボトムイベントタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドルイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボトムイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボトムイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備イベントID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備タイムテーブルID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドルイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備イベントID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグテーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグテーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムテーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学科コースID</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ID</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,13 +491,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1464708</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>14815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1464708</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>4231</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -831,13 +833,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1071046</xdr:colOff>
+      <xdr:colOff>12710</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>182023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2129</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139710</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>65606</xdr:rowOff>
     </xdr:to>
@@ -848,7 +850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6193379" y="4055523"/>
+          <a:off x="5135043" y="4055523"/>
           <a:ext cx="127000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -886,14 +888,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1392762</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6349</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1519762</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>239181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -902,7 +904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11171762" y="2927349"/>
+          <a:off x="11171762" y="1794931"/>
           <a:ext cx="127000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1414,7 +1416,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1435,94 +1437,92 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1531,33 +1531,35 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="13" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
@@ -1565,11 +1567,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
+      <c r="G9" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1578,11 +1580,11 @@
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="11" t="s">
-        <v>34</v>
+      <c r="G10" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1591,11 +1593,11 @@
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1604,41 +1606,41 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -1649,7 +1651,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1658,11 +1660,11 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -1671,11 +1673,11 @@
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
@@ -1684,11 +1686,11 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
@@ -1696,12 +1698,12 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
-        <v>6</v>
+      <c r="C19" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="7" t="s">
-        <v>27</v>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
@@ -1709,17 +1711,24 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="9" t="s">
-        <v>8</v>
+      <c r="C20" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>

--- a/database/ER図.xlsx
+++ b/database/ER図.xlsx
@@ -1415,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/database/ER図.xlsx
+++ b/database/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>学年学科テーブル</t>
     <rPh sb="0" eb="2">
@@ -55,23 +55,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>何時</t>
-    <rPh sb="0" eb="2">
-      <t>ナンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学年</t>
     <rPh sb="0" eb="2">
       <t>ガクネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何分</t>
-    <rPh sb="0" eb="2">
-      <t>ナンフン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,13 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日時</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>//スポーツ大会</t>
     <rPh sb="6" eb="8">
       <t>タイカイ</t>
@@ -208,107 +187,120 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日時</t>
-    <rPh sb="0" eb="2">
+    <t>表示フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボトムイベントタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドルイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボトムイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボトムイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備イベントID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備タイムテーブルID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドルイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備イベントID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグテーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグテーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムテーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学科コースID</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ID</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日時</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示フラグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボトムイベントタイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミドルイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボトムイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボトムイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>準備イベントID</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>準備タイムテーブルID</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミドルイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>準備イベントID</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグテーブルID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグテーブルID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムテーブルID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学科コースID</t>
-    <rPh sb="0" eb="2">
-      <t>ガッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問ID</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
+    <t>終了日時</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1415,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1437,19 +1429,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1458,20 +1450,20 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
@@ -1479,11 +1471,11 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1492,15 +1484,15 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1509,7 +1501,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="10"/>
@@ -1518,11 +1510,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1531,34 +1523,34 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1567,11 +1559,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1580,11 +1572,11 @@
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1593,11 +1585,11 @@
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="7" t="s">
-        <v>25</v>
+      <c r="G11" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1606,41 +1598,39 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="7" t="s">
-        <v>4</v>
+      <c r="G12" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -1651,7 +1641,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1660,11 +1650,11 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -1673,11 +1663,11 @@
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
@@ -1686,11 +1676,11 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
@@ -1699,11 +1689,11 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
@@ -1711,8 +1701,8 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
-        <v>4</v>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="10"/>
@@ -1722,9 +1712,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>

--- a/database/ER図.xlsx
+++ b/database/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>学年学科テーブル</t>
     <rPh sb="0" eb="2">
@@ -301,6 +301,16 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照権限</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1407,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1667,7 +1677,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
@@ -1680,7 +1690,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
@@ -1692,8 +1702,8 @@
         <v>45</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="9" t="s">
-        <v>16</v>
+      <c r="E19" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
@@ -1705,7 +1715,9 @@
         <v>46</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
@@ -1714,7 +1726,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="I21" s="1"/>
@@ -1722,17 +1734,18 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E22" s="5"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E23" s="1"/>
       <c r="I23" s="3"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E24" s="1"/>
       <c r="I24" s="3"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
